--- a/conf-core/src/test/resources/dataloader/conf-data-slot-pairs.xlsx
+++ b/conf-core/src/test/resources/dataloader/conf-data-slot-pairs.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="4440" windowWidth="28620" windowHeight="12660"/>
+    <workbookView xWindow="1068" yWindow="4440" windowWidth="23136" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="179">
   <si>
     <t>Logical Component Relationships</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>contains</t>
-  </si>
-  <si>
-    <t>ROOT</t>
   </si>
   <si>
     <t>FRIB</t>
@@ -915,27 +912,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E326"/>
+  <dimension ref="A1:E325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -943,10 +940,10 @@
         <v>41557</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -960,7 +957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -970,11 +967,11 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -982,27 +979,27 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1016,7 +1013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1024,13 +1021,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1038,41 +1035,41 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1080,13 +1077,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1094,13 +1091,13 @@
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1108,13 +1105,13 @@
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1122,13 +1119,13 @@
         <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1136,13 +1133,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1150,36 +1147,36 @@
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="2" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1187,13 +1184,13 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1201,13 +1198,13 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1215,13 +1212,13 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1229,13 +1226,13 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1243,13 +1240,13 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1257,13 +1254,13 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1271,33 +1268,33 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D34" s="3"/>
-      <c r="E34" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D33" s="3"/>
+      <c r="E33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1305,13 +1302,13 @@
         <v>7</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1319,13 +1316,13 @@
         <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1333,13 +1330,13 @@
         <v>7</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1347,13 +1344,13 @@
         <v>7</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1361,13 +1358,13 @@
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1375,13 +1372,13 @@
         <v>7</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1395,7 +1392,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1409,7 +1406,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1417,13 +1414,13 @@
         <v>7</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D43" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1431,13 +1428,13 @@
         <v>7</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D44" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1445,13 +1442,13 @@
         <v>7</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D45" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1459,13 +1456,13 @@
         <v>7</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D46" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -1479,7 +1476,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -1487,13 +1484,13 @@
         <v>7</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D48" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -1501,13 +1498,13 @@
         <v>7</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D49" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -1515,13 +1512,13 @@
         <v>7</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D50" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -1529,13 +1526,13 @@
         <v>7</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -1543,13 +1540,13 @@
         <v>7</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D52" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -1557,13 +1554,13 @@
         <v>7</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -1571,13 +1568,13 @@
         <v>7</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -1585,13 +1582,13 @@
         <v>7</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D55" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -1599,13 +1596,13 @@
         <v>7</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D56" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -1613,27 +1610,27 @@
         <v>7</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D57" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D58" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -1641,13 +1638,13 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -1655,13 +1652,13 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -1669,13 +1666,13 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -1683,13 +1680,13 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -1697,13 +1694,13 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -1711,13 +1708,13 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -1725,13 +1722,13 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -1739,13 +1736,13 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -1753,13 +1750,13 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -1767,13 +1764,13 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -1781,13 +1778,13 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -1795,13 +1792,13 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -1809,13 +1806,13 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -1823,13 +1820,13 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -1837,13 +1834,13 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -1851,13 +1848,13 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -1865,13 +1862,13 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -1879,13 +1876,13 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -1893,13 +1890,13 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -1907,13 +1904,13 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -1921,13 +1918,13 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -1935,13 +1932,13 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -1949,13 +1946,13 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -1963,13 +1960,13 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -1977,13 +1974,13 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -1991,13 +1988,13 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -2005,13 +2002,13 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -2019,13 +2016,13 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>18</v>
-      </c>
-      <c r="D87" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -2033,13 +2030,13 @@
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D88" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -2047,27 +2044,27 @@
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D89" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>6</v>
-      </c>
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" t="s">
+    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
         <v>18</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D92" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -2075,13 +2072,13 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D93" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -2089,13 +2086,13 @@
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D94" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -2103,13 +2100,13 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D95" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -2117,13 +2114,13 @@
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D96" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -2131,13 +2128,13 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D97" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -2145,13 +2142,13 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D98" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -2159,13 +2156,13 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D99" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -2173,13 +2170,13 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D100" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -2187,27 +2184,27 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D101" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>6</v>
-      </c>
-      <c r="B102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" t="s">
+    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
         <v>19</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D103" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -2215,13 +2212,13 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -2229,13 +2226,13 @@
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -2243,13 +2240,13 @@
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -2257,13 +2254,13 @@
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -2271,13 +2268,13 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -2285,13 +2282,13 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>6</v>
       </c>
@@ -2299,13 +2296,13 @@
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>6</v>
       </c>
@@ -2313,13 +2310,13 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>6</v>
       </c>
@@ -2327,13 +2324,13 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>6</v>
       </c>
@@ -2341,13 +2338,13 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -2355,13 +2352,13 @@
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -2369,13 +2366,13 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -2383,13 +2380,13 @@
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -2397,13 +2394,13 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -2411,13 +2408,13 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -2425,13 +2422,13 @@
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -2439,13 +2436,13 @@
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -2453,13 +2450,13 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -2467,13 +2464,13 @@
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -2481,13 +2478,13 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -2495,13 +2492,13 @@
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -2509,13 +2506,13 @@
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>6</v>
       </c>
@@ -2523,13 +2520,13 @@
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>6</v>
       </c>
@@ -2537,13 +2534,13 @@
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>20</v>
-      </c>
-      <c r="D127" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -2551,13 +2548,13 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>6</v>
       </c>
@@ -2565,13 +2562,13 @@
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>6</v>
       </c>
@@ -2579,13 +2576,13 @@
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>6</v>
       </c>
@@ -2593,13 +2590,13 @@
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -2607,13 +2604,13 @@
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>6</v>
       </c>
@@ -2621,13 +2618,13 @@
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>6</v>
       </c>
@@ -2635,13 +2632,13 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -2649,13 +2646,13 @@
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>6</v>
       </c>
@@ -2663,13 +2660,13 @@
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -2677,13 +2674,13 @@
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -2691,13 +2688,13 @@
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -2705,13 +2702,13 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>6</v>
       </c>
@@ -2719,13 +2716,13 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -2733,13 +2730,13 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -2747,13 +2744,13 @@
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -2761,13 +2758,13 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -2775,13 +2772,13 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>6</v>
       </c>
@@ -2789,13 +2786,13 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -2803,13 +2800,13 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -2817,13 +2814,13 @@
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -2831,13 +2828,13 @@
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -2845,13 +2842,13 @@
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -2859,27 +2856,27 @@
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>6</v>
-      </c>
-      <c r="B151" t="s">
-        <v>7</v>
-      </c>
-      <c r="C151" t="s">
+    <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" t="s">
         <v>20</v>
       </c>
-      <c r="D151" s="4" t="s">
+      <c r="D152" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -2887,13 +2884,13 @@
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D153" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>6</v>
       </c>
@@ -2901,13 +2898,13 @@
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D154" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -2915,27 +2912,27 @@
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D155" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>6</v>
-      </c>
-      <c r="B156" t="s">
-        <v>7</v>
-      </c>
-      <c r="C156" t="s">
+    <row r="159" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" t="s">
         <v>21</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D159" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>6</v>
       </c>
@@ -2943,13 +2940,13 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>6</v>
       </c>
@@ -2957,13 +2954,13 @@
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -2971,13 +2968,13 @@
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -2985,13 +2982,13 @@
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>6</v>
       </c>
@@ -2999,13 +2996,13 @@
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>6</v>
       </c>
@@ -3013,13 +3010,13 @@
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -3027,13 +3024,13 @@
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>6</v>
       </c>
@@ -3041,13 +3038,13 @@
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -3055,13 +3052,13 @@
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>6</v>
       </c>
@@ -3069,13 +3066,13 @@
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -3083,27 +3080,27 @@
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>6</v>
-      </c>
-      <c r="B171" t="s">
-        <v>7</v>
-      </c>
-      <c r="C171" t="s">
+    <row r="173" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" t="s">
         <v>22</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="D173" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>6</v>
       </c>
@@ -3111,13 +3108,13 @@
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D174" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>6</v>
       </c>
@@ -3125,32 +3122,33 @@
         <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D175" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>6</v>
-      </c>
-      <c r="B176" t="s">
-        <v>7</v>
-      </c>
-      <c r="C176" t="s">
-        <v>23</v>
-      </c>
-      <c r="D176" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B178" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D178" t="str">
+        <f>CONCATENATE(C178,":%")</f>
+        <v>FE_SRC1:%</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>6</v>
       </c>
@@ -3161,11 +3159,11 @@
         <v>25</v>
       </c>
       <c r="D179" t="str">
-        <f>CONCATENATE(C179,":%")</f>
-        <v>FE_SRC1:%</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D179:D185" si="0">CONCATENATE(C179,":%")</f>
+        <v>FE_SRC2:%</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>6</v>
       </c>
@@ -3176,11 +3174,11 @@
         <v>26</v>
       </c>
       <c r="D180" t="str">
-        <f t="shared" ref="D180:D186" si="0">CONCATENATE(C180,":%")</f>
-        <v>FE_SRC2:%</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>FE_SCS1:%</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>6</v>
       </c>
@@ -3192,10 +3190,10 @@
       </c>
       <c r="D181" t="str">
         <f t="shared" si="0"/>
-        <v>FE_SCS1:%</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+        <v>FE_SCS2:%</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>6</v>
       </c>
@@ -3207,10 +3205,10 @@
       </c>
       <c r="D182" t="str">
         <f t="shared" si="0"/>
-        <v>FE_SCS2:%</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+        <v>FE_LEBT:%</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>6</v>
       </c>
@@ -3222,10 +3220,10 @@
       </c>
       <c r="D183" t="str">
         <f t="shared" si="0"/>
-        <v>FE_LEBT:%</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+        <v>FE_RFQ:%</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>6</v>
       </c>
@@ -3237,10 +3235,10 @@
       </c>
       <c r="D184" t="str">
         <f t="shared" si="0"/>
-        <v>FE_RFQ:%</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+        <v>FE_MEBT:%</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>6</v>
       </c>
@@ -3252,25 +3250,25 @@
       </c>
       <c r="D185" t="str">
         <f t="shared" si="0"/>
-        <v>FE_MEBT:%</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>6</v>
-      </c>
-      <c r="B186" t="s">
-        <v>7</v>
-      </c>
-      <c r="C186" s="3" t="s">
+        <v>FE_BTS:%</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>6</v>
+      </c>
+      <c r="B188" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D186" t="str">
-        <f t="shared" si="0"/>
-        <v>FE_BTS:%</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D188" t="str">
+        <f>CONCATENATE(C188,":%")</f>
+        <v>LS1_CA01:%</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>6</v>
       </c>
@@ -3281,11 +3279,11 @@
         <v>33</v>
       </c>
       <c r="D189" t="str">
-        <f>CONCATENATE(C189,":%")</f>
-        <v>LS1_CA01:%</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D189:D252" si="1">CONCATENATE(C189,":%")</f>
+        <v>LS1_WA01:%</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>6</v>
       </c>
@@ -3296,11 +3294,11 @@
         <v>34</v>
       </c>
       <c r="D190" t="str">
-        <f t="shared" ref="D190:D253" si="1">CONCATENATE(C190,":%")</f>
-        <v>LS1_WA01:%</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>LS1_CA02:%</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>6</v>
       </c>
@@ -3312,10 +3310,10 @@
       </c>
       <c r="D191" t="str">
         <f t="shared" si="1"/>
-        <v>LS1_CA02:%</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS1_WA02:%</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>6</v>
       </c>
@@ -3327,10 +3325,10 @@
       </c>
       <c r="D192" t="str">
         <f t="shared" si="1"/>
-        <v>LS1_WA02:%</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS1_CA03:%</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>6</v>
       </c>
@@ -3342,25 +3340,25 @@
       </c>
       <c r="D193" t="str">
         <f t="shared" si="1"/>
-        <v>LS1_CA03:%</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS1_WA03:%</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>6</v>
       </c>
       <c r="B194" t="s">
         <v>7</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="C194" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D194" t="str">
         <f t="shared" si="1"/>
-        <v>LS1_WA03:%</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS1_CB01:%</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>6</v>
       </c>
@@ -3372,10 +3370,10 @@
       </c>
       <c r="D195" t="str">
         <f t="shared" si="1"/>
-        <v>LS1_CB01:%</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS1_WB01:%</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>6</v>
       </c>
@@ -3387,10 +3385,10 @@
       </c>
       <c r="D196" t="str">
         <f t="shared" si="1"/>
-        <v>LS1_WB01:%</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS1_CB02:%</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>6</v>
       </c>
@@ -3402,10 +3400,10 @@
       </c>
       <c r="D197" t="str">
         <f t="shared" si="1"/>
-        <v>LS1_CB02:%</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS1_WB02:%</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>6</v>
       </c>
@@ -3417,10 +3415,10 @@
       </c>
       <c r="D198" t="str">
         <f t="shared" si="1"/>
-        <v>LS1_WB02:%</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS1_CB03:%</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>6</v>
       </c>
@@ -3432,10 +3430,10 @@
       </c>
       <c r="D199" t="str">
         <f t="shared" si="1"/>
-        <v>LS1_CB03:%</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS1_WB03:%</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>6</v>
       </c>
@@ -3447,10 +3445,10 @@
       </c>
       <c r="D200" t="str">
         <f t="shared" si="1"/>
-        <v>LS1_WB03:%</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS1_CB04:%</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>6</v>
       </c>
@@ -3462,10 +3460,10 @@
       </c>
       <c r="D201" t="str">
         <f t="shared" si="1"/>
-        <v>LS1_CB04:%</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS1_WB04:%</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>6</v>
       </c>
@@ -3477,10 +3475,10 @@
       </c>
       <c r="D202" t="str">
         <f t="shared" si="1"/>
-        <v>LS1_WB04:%</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS1_CB05:%</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>6</v>
       </c>
@@ -3492,10 +3490,10 @@
       </c>
       <c r="D203" t="str">
         <f t="shared" si="1"/>
-        <v>LS1_CB05:%</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS1_WB05:%</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>6</v>
       </c>
@@ -3507,10 +3505,10 @@
       </c>
       <c r="D204" t="str">
         <f t="shared" si="1"/>
-        <v>LS1_WB05:%</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS1_CB06:%</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>6</v>
       </c>
@@ -3522,10 +3520,10 @@
       </c>
       <c r="D205" t="str">
         <f t="shared" si="1"/>
-        <v>LS1_CB06:%</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS1_WB06:%</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>6</v>
       </c>
@@ -3537,10 +3535,10 @@
       </c>
       <c r="D206" t="str">
         <f t="shared" si="1"/>
-        <v>LS1_WB06:%</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS1_CB07:%</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>6</v>
       </c>
@@ -3552,10 +3550,10 @@
       </c>
       <c r="D207" t="str">
         <f t="shared" si="1"/>
-        <v>LS1_CB07:%</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS1_WB07:%</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>6</v>
       </c>
@@ -3567,10 +3565,10 @@
       </c>
       <c r="D208" t="str">
         <f t="shared" si="1"/>
-        <v>LS1_WB07:%</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS1_CB08:%</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>6</v>
       </c>
@@ -3582,10 +3580,10 @@
       </c>
       <c r="D209" t="str">
         <f t="shared" si="1"/>
-        <v>LS1_CB08:%</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS1_WB08:%</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>6</v>
       </c>
@@ -3597,10 +3595,10 @@
       </c>
       <c r="D210" t="str">
         <f t="shared" si="1"/>
-        <v>LS1_WB08:%</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS1_CB09:%</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>6</v>
       </c>
@@ -3612,10 +3610,10 @@
       </c>
       <c r="D211" t="str">
         <f t="shared" si="1"/>
-        <v>LS1_CB09:%</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS1_WB09:%</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>6</v>
       </c>
@@ -3627,10 +3625,10 @@
       </c>
       <c r="D212" t="str">
         <f t="shared" si="1"/>
-        <v>LS1_WB09:%</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS1_CB10:%</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>6</v>
       </c>
@@ -3642,10 +3640,10 @@
       </c>
       <c r="D213" t="str">
         <f t="shared" si="1"/>
-        <v>LS1_CB10:%</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS1_WB10:%</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>6</v>
       </c>
@@ -3657,10 +3655,10 @@
       </c>
       <c r="D214" t="str">
         <f t="shared" si="1"/>
-        <v>LS1_WB10:%</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS1_CB11:%</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>6</v>
       </c>
@@ -3672,25 +3670,25 @@
       </c>
       <c r="D215" t="str">
         <f t="shared" si="1"/>
-        <v>LS1_CB11:%</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>6</v>
-      </c>
+        <v>LS1_WB11:%</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B216" t="s">
         <v>7</v>
       </c>
-      <c r="C216" s="4" t="s">
+      <c r="C216" t="s">
         <v>60</v>
       </c>
       <c r="D216" t="str">
         <f t="shared" si="1"/>
-        <v>LS1_WB11:%</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS1_BTS1:%</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>6</v>
+      </c>
       <c r="B217" t="s">
         <v>7</v>
       </c>
@@ -3699,13 +3697,10 @@
       </c>
       <c r="D217" t="str">
         <f t="shared" si="1"/>
-        <v>LS1_BTS1:%</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>6</v>
-      </c>
+        <v>LS1_CF01:%</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
         <v>7</v>
       </c>
@@ -3714,10 +3709,13 @@
       </c>
       <c r="D218" t="str">
         <f t="shared" si="1"/>
-        <v>LS1_CF01:%</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS1_BTS2:%</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>6</v>
+      </c>
       <c r="B219" t="s">
         <v>7</v>
       </c>
@@ -3726,10 +3724,10 @@
       </c>
       <c r="D219" t="str">
         <f t="shared" si="1"/>
-        <v>LS1_BTS2:%</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+        <v>FS1_CF02:%</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>6</v>
       </c>
@@ -3741,10 +3739,10 @@
       </c>
       <c r="D220" t="str">
         <f t="shared" si="1"/>
-        <v>FS1_CF02:%</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+        <v>FS1_CSS:%</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>6</v>
       </c>
@@ -3756,10 +3754,10 @@
       </c>
       <c r="D221" t="str">
         <f t="shared" si="1"/>
-        <v>FS1_CSS:%</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+        <v>FS1_STRL:%</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -3771,10 +3769,10 @@
       </c>
       <c r="D222" t="str">
         <f t="shared" si="1"/>
-        <v>FS1_STRL:%</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+        <v>FS1_CE01:%</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -3786,10 +3784,10 @@
       </c>
       <c r="D223" t="str">
         <f t="shared" si="1"/>
-        <v>FS1_CE01:%</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+        <v>FS1_CH01:%</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>6</v>
       </c>
@@ -3801,10 +3799,10 @@
       </c>
       <c r="D224" t="str">
         <f t="shared" si="1"/>
-        <v>FS1_CH01:%</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+        <v>FS1_BBS:%</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>6</v>
       </c>
@@ -3816,10 +3814,10 @@
       </c>
       <c r="D225" t="str">
         <f t="shared" si="1"/>
-        <v>FS1_BBS:%</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+        <v>FS1_BMS:%</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>6</v>
       </c>
@@ -3831,10 +3829,10 @@
       </c>
       <c r="D226" t="str">
         <f t="shared" si="1"/>
-        <v>FS1_BMS:%</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+        <v>FS1_CE02:%</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>6</v>
       </c>
@@ -3846,10 +3844,10 @@
       </c>
       <c r="D227" t="str">
         <f t="shared" si="1"/>
-        <v>FS1_CE02:%</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+        <v>FS1_CH02:%</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>6</v>
       </c>
@@ -3861,25 +3859,25 @@
       </c>
       <c r="D228" t="str">
         <f t="shared" si="1"/>
-        <v>FS1_CH02:%</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>6</v>
-      </c>
-      <c r="B229" t="s">
-        <v>7</v>
-      </c>
-      <c r="C229" t="s">
+        <v>FS1_BTS:%</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>6</v>
+      </c>
+      <c r="B231" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D229" t="str">
-        <f t="shared" si="1"/>
-        <v>FS1_BTS:%</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D231" t="str">
+        <f t="shared" si="1"/>
+        <v>LS2_CC01:%</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>6</v>
       </c>
@@ -3891,10 +3889,10 @@
       </c>
       <c r="D232" t="str">
         <f t="shared" si="1"/>
-        <v>LS2_CC01:%</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_WC01:%</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -3906,10 +3904,10 @@
       </c>
       <c r="D233" t="str">
         <f t="shared" si="1"/>
-        <v>LS2_WC01:%</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_CC02:%</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>6</v>
       </c>
@@ -3921,10 +3919,10 @@
       </c>
       <c r="D234" t="str">
         <f t="shared" si="1"/>
-        <v>LS2_CC02:%</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_WC02:%</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>6</v>
       </c>
@@ -3936,10 +3934,10 @@
       </c>
       <c r="D235" t="str">
         <f t="shared" si="1"/>
-        <v>LS2_WC02:%</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_CC03:%</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>6</v>
       </c>
@@ -3951,10 +3949,10 @@
       </c>
       <c r="D236" t="str">
         <f t="shared" si="1"/>
-        <v>LS2_CC03:%</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_WC03:%</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>6</v>
       </c>
@@ -3966,10 +3964,10 @@
       </c>
       <c r="D237" t="str">
         <f t="shared" si="1"/>
-        <v>LS2_WC03:%</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_CC04:%</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>6</v>
       </c>
@@ -3981,10 +3979,10 @@
       </c>
       <c r="D238" t="str">
         <f t="shared" si="1"/>
-        <v>LS2_CC04:%</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_WC04:%</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>6</v>
       </c>
@@ -3996,10 +3994,10 @@
       </c>
       <c r="D239" t="str">
         <f t="shared" si="1"/>
-        <v>LS2_WC04:%</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_CC05:%</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>6</v>
       </c>
@@ -4011,10 +4009,10 @@
       </c>
       <c r="D240" t="str">
         <f t="shared" si="1"/>
-        <v>LS2_CC05:%</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_WC05:%</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>6</v>
       </c>
@@ -4026,10 +4024,10 @@
       </c>
       <c r="D241" t="str">
         <f t="shared" si="1"/>
-        <v>LS2_WC05:%</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_CC06:%</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>6</v>
       </c>
@@ -4041,10 +4039,10 @@
       </c>
       <c r="D242" t="str">
         <f t="shared" si="1"/>
-        <v>LS2_CC06:%</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_WC06:%</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>6</v>
       </c>
@@ -4056,10 +4054,10 @@
       </c>
       <c r="D243" t="str">
         <f t="shared" si="1"/>
-        <v>LS2_WC06:%</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_CC07:%</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>6</v>
       </c>
@@ -4071,10 +4069,10 @@
       </c>
       <c r="D244" t="str">
         <f t="shared" si="1"/>
-        <v>LS2_CC07:%</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_WC07:%</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>6</v>
       </c>
@@ -4086,10 +4084,10 @@
       </c>
       <c r="D245" t="str">
         <f t="shared" si="1"/>
-        <v>LS2_WC07:%</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_CC08:%</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>6</v>
       </c>
@@ -4101,10 +4099,10 @@
       </c>
       <c r="D246" t="str">
         <f t="shared" si="1"/>
-        <v>LS2_CC08:%</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_WC08:%</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>6</v>
       </c>
@@ -4116,10 +4114,10 @@
       </c>
       <c r="D247" t="str">
         <f t="shared" si="1"/>
-        <v>LS2_WC08:%</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_CC09:%</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>6</v>
       </c>
@@ -4131,10 +4129,10 @@
       </c>
       <c r="D248" t="str">
         <f t="shared" si="1"/>
-        <v>LS2_CC09:%</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_WC09:%</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>6</v>
       </c>
@@ -4146,10 +4144,10 @@
       </c>
       <c r="D249" t="str">
         <f t="shared" si="1"/>
-        <v>LS2_WC09:%</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_CC10:%</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>6</v>
       </c>
@@ -4161,10 +4159,10 @@
       </c>
       <c r="D250" t="str">
         <f t="shared" si="1"/>
-        <v>LS2_CC10:%</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_WC10:%</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>6</v>
       </c>
@@ -4176,10 +4174,10 @@
       </c>
       <c r="D251" t="str">
         <f t="shared" si="1"/>
-        <v>LS2_WC10:%</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_CC11:%</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>6</v>
       </c>
@@ -4191,10 +4189,10 @@
       </c>
       <c r="D252" t="str">
         <f t="shared" si="1"/>
-        <v>LS2_CC11:%</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_WC11:%</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>6</v>
       </c>
@@ -4205,11 +4203,11 @@
         <v>95</v>
       </c>
       <c r="D253" t="str">
-        <f t="shared" si="1"/>
-        <v>LS2_WC11:%</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D253:D322" si="2">CONCATENATE(C253,":%")</f>
+        <v>LS2_CC12:%</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>6</v>
       </c>
@@ -4220,26 +4218,26 @@
         <v>96</v>
       </c>
       <c r="D254" t="str">
-        <f t="shared" ref="D254:D323" si="2">CONCATENATE(C254,":%")</f>
-        <v>LS2_CC12:%</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>LS2_WC12:%</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>6</v>
       </c>
       <c r="B255" t="s">
         <v>7</v>
       </c>
-      <c r="C255" s="3" t="s">
+      <c r="C255" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D255" t="str">
         <f t="shared" si="2"/>
-        <v>LS2_WC12:%</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_CD01:%</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>6</v>
       </c>
@@ -4251,10 +4249,10 @@
       </c>
       <c r="D256" t="str">
         <f t="shared" si="2"/>
-        <v>LS2_CD01:%</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_WD01:%</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>6</v>
       </c>
@@ -4266,10 +4264,10 @@
       </c>
       <c r="D257" t="str">
         <f t="shared" si="2"/>
-        <v>LS2_WD01:%</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_CD02:%</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>6</v>
       </c>
@@ -4281,10 +4279,10 @@
       </c>
       <c r="D258" t="str">
         <f t="shared" si="2"/>
-        <v>LS2_CD02:%</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_WD02:%</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>6</v>
       </c>
@@ -4296,10 +4294,10 @@
       </c>
       <c r="D259" t="str">
         <f t="shared" si="2"/>
-        <v>LS2_WD02:%</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_CD03:%</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>6</v>
       </c>
@@ -4311,10 +4309,10 @@
       </c>
       <c r="D260" t="str">
         <f t="shared" si="2"/>
-        <v>LS2_CD03:%</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_WD03:%</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>6</v>
       </c>
@@ -4326,10 +4324,10 @@
       </c>
       <c r="D261" t="str">
         <f t="shared" si="2"/>
-        <v>LS2_WD03:%</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_CD04:%</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>6</v>
       </c>
@@ -4341,10 +4339,10 @@
       </c>
       <c r="D262" t="str">
         <f t="shared" si="2"/>
-        <v>LS2_CD04:%</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_WD04:%</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>6</v>
       </c>
@@ -4356,10 +4354,10 @@
       </c>
       <c r="D263" t="str">
         <f t="shared" si="2"/>
-        <v>LS2_WD04:%</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_CD05:%</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>6</v>
       </c>
@@ -4371,10 +4369,10 @@
       </c>
       <c r="D264" t="str">
         <f t="shared" si="2"/>
-        <v>LS2_CD05:%</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_WD05:%</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>6</v>
       </c>
@@ -4386,10 +4384,10 @@
       </c>
       <c r="D265" t="str">
         <f t="shared" si="2"/>
-        <v>LS2_WD05:%</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_CD06:%</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>6</v>
       </c>
@@ -4401,10 +4399,10 @@
       </c>
       <c r="D266" t="str">
         <f t="shared" si="2"/>
-        <v>LS2_CD06:%</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_WD06:%</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>6</v>
       </c>
@@ -4416,10 +4414,10 @@
       </c>
       <c r="D267" t="str">
         <f t="shared" si="2"/>
-        <v>LS2_WD06:%</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_CD07:%</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>6</v>
       </c>
@@ -4431,10 +4429,10 @@
       </c>
       <c r="D268" t="str">
         <f t="shared" si="2"/>
-        <v>LS2_CD07:%</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_WD07:%</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -4446,10 +4444,10 @@
       </c>
       <c r="D269" t="str">
         <f t="shared" si="2"/>
-        <v>LS2_WD07:%</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_CD08:%</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>6</v>
       </c>
@@ -4461,10 +4459,10 @@
       </c>
       <c r="D270" t="str">
         <f t="shared" si="2"/>
-        <v>LS2_CD08:%</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_WD08:%</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>6</v>
       </c>
@@ -4476,10 +4474,10 @@
       </c>
       <c r="D271" t="str">
         <f t="shared" si="2"/>
-        <v>LS2_WD08:%</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_CD09:%</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>6</v>
       </c>
@@ -4491,10 +4489,10 @@
       </c>
       <c r="D272" t="str">
         <f t="shared" si="2"/>
-        <v>LS2_CD09:%</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_WD09:%</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>6</v>
       </c>
@@ -4506,10 +4504,10 @@
       </c>
       <c r="D273" t="str">
         <f t="shared" si="2"/>
-        <v>LS2_WD09:%</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_CD10:%</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>6</v>
       </c>
@@ -4521,10 +4519,10 @@
       </c>
       <c r="D274" t="str">
         <f t="shared" si="2"/>
-        <v>LS2_CD10:%</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_WD10:%</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>6</v>
       </c>
@@ -4536,10 +4534,10 @@
       </c>
       <c r="D275" t="str">
         <f t="shared" si="2"/>
-        <v>LS2_WD10:%</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_CD11:%</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>6</v>
       </c>
@@ -4551,10 +4549,10 @@
       </c>
       <c r="D276" t="str">
         <f t="shared" si="2"/>
-        <v>LS2_CD11:%</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_WD11:%</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>6</v>
       </c>
@@ -4566,10 +4564,10 @@
       </c>
       <c r="D277" t="str">
         <f t="shared" si="2"/>
-        <v>LS2_WD11:%</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_CD12:%</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>6</v>
       </c>
@@ -4581,25 +4579,25 @@
       </c>
       <c r="D278" t="str">
         <f t="shared" si="2"/>
-        <v>LS2_CD12:%</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS2_WD12:%</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>6</v>
       </c>
       <c r="B279" t="s">
         <v>7</v>
       </c>
-      <c r="C279" s="4" t="s">
+      <c r="C279" t="s">
         <v>121</v>
       </c>
       <c r="D279" t="str">
         <f t="shared" si="2"/>
-        <v>LS2_WD12:%</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+        <v>FS2_BTS:%</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>6</v>
       </c>
@@ -4611,10 +4609,10 @@
       </c>
       <c r="D280" t="str">
         <f t="shared" si="2"/>
-        <v>FS2_BTS:%</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+        <v>FS2_BBS:%</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>6</v>
       </c>
@@ -4626,10 +4624,10 @@
       </c>
       <c r="D281" t="str">
         <f t="shared" si="2"/>
-        <v>FS2_BBS:%</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+        <v>FS2_BMS:%</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>6</v>
       </c>
@@ -4641,25 +4639,25 @@
       </c>
       <c r="D282" t="str">
         <f t="shared" si="2"/>
-        <v>FS2_BMS:%</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+        <v>FS2_CG01:%</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>6</v>
       </c>
       <c r="B283" t="s">
         <v>7</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C283" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D283" t="str">
         <f t="shared" si="2"/>
-        <v>FS2_CG01:%</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS3_CD01:%</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>6</v>
       </c>
@@ -4671,10 +4669,10 @@
       </c>
       <c r="D284" t="str">
         <f t="shared" si="2"/>
-        <v>LS3_CD01:%</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS3_WD01:%</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>6</v>
       </c>
@@ -4686,10 +4684,10 @@
       </c>
       <c r="D285" t="str">
         <f t="shared" si="2"/>
-        <v>LS3_WD01:%</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS3_CD02:%</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>6</v>
       </c>
@@ -4701,10 +4699,10 @@
       </c>
       <c r="D286" t="str">
         <f t="shared" si="2"/>
-        <v>LS3_CD02:%</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS3_WD02:%</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>6</v>
       </c>
@@ -4716,10 +4714,10 @@
       </c>
       <c r="D287" t="str">
         <f t="shared" si="2"/>
-        <v>LS3_WD02:%</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+        <v>LS3_CD03:%</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>6</v>
       </c>
@@ -4731,10 +4729,10 @@
       </c>
       <c r="D288" t="str">
         <f t="shared" si="2"/>
-        <v>LS3_CD03:%</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+        <v>LS3_WD03:%</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>6</v>
       </c>
@@ -4746,10 +4744,10 @@
       </c>
       <c r="D289" t="str">
         <f t="shared" si="2"/>
-        <v>LS3_WD03:%</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+        <v>LS3_CD04:%</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>6</v>
       </c>
@@ -4761,10 +4759,10 @@
       </c>
       <c r="D290" t="str">
         <f t="shared" si="2"/>
-        <v>LS3_CD04:%</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+        <v>LS3_WD04:%</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>6</v>
       </c>
@@ -4776,10 +4774,10 @@
       </c>
       <c r="D291" t="str">
         <f t="shared" si="2"/>
-        <v>LS3_WD04:%</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+        <v>LS3_CD05:%</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>6</v>
       </c>
@@ -4791,10 +4789,10 @@
       </c>
       <c r="D292" t="str">
         <f t="shared" si="2"/>
-        <v>LS3_CD05:%</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+        <v>LS3_WD05:%</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>6</v>
       </c>
@@ -4806,10 +4804,10 @@
       </c>
       <c r="D293" t="str">
         <f t="shared" si="2"/>
-        <v>LS3_WD05:%</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+        <v>LS3_CD06:%</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>6</v>
       </c>
@@ -4821,37 +4819,37 @@
       </c>
       <c r="D294" t="str">
         <f t="shared" si="2"/>
-        <v>LS3_CD06:%</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>6</v>
-      </c>
+        <v>LS3_WD06:%</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B295" t="s">
         <v>7</v>
       </c>
-      <c r="C295" s="3" t="s">
+      <c r="C295" t="s">
+        <v>140</v>
+      </c>
+      <c r="D295" t="str">
+        <f t="shared" si="2"/>
+        <v>LS3_BTS1:%</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>6</v>
+      </c>
+      <c r="B296" t="s">
+        <v>7</v>
+      </c>
+      <c r="C296" t="s">
         <v>137</v>
       </c>
-      <c r="D295" t="str">
-        <f t="shared" si="2"/>
-        <v>LS3_WD06:%</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B296" t="s">
-        <v>7</v>
-      </c>
-      <c r="C296" t="s">
-        <v>141</v>
-      </c>
       <c r="D296" t="str">
         <f t="shared" si="2"/>
-        <v>LS3_BTS1:%</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+        <v>BDS_BTS:%</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>6</v>
       </c>
@@ -4863,10 +4861,10 @@
       </c>
       <c r="D297" t="str">
         <f t="shared" si="2"/>
-        <v>BDS_BTS:%</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+        <v>BDS_BBS:%</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>6</v>
       </c>
@@ -4878,30 +4876,29 @@
       </c>
       <c r="D298" t="str">
         <f t="shared" si="2"/>
-        <v>BDS_BBS:%</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>6</v>
-      </c>
-      <c r="B299" t="s">
-        <v>7</v>
-      </c>
-      <c r="C299" t="s">
-        <v>140</v>
-      </c>
-      <c r="D299" t="str">
-        <f t="shared" si="2"/>
         <v>BDS_FFS:%</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E302" t="s">
+    <row r="301" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="E301" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>6</v>
+      </c>
+      <c r="B302" t="s">
+        <v>7</v>
+      </c>
+      <c r="C302" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D302" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>6</v>
       </c>
@@ -4909,13 +4906,13 @@
         <v>7</v>
       </c>
       <c r="C303" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D303" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>6</v>
       </c>
@@ -4923,13 +4920,13 @@
         <v>7</v>
       </c>
       <c r="C304" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D304" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>6</v>
       </c>
@@ -4937,13 +4934,13 @@
         <v>7</v>
       </c>
       <c r="C305" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D305" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>6</v>
       </c>
@@ -4951,13 +4948,13 @@
         <v>7</v>
       </c>
       <c r="C306" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D306" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>6</v>
       </c>
@@ -4965,13 +4962,13 @@
         <v>7</v>
       </c>
       <c r="C307" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D307" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>6</v>
       </c>
@@ -4979,13 +4976,13 @@
         <v>7</v>
       </c>
       <c r="C308" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D308" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>6</v>
       </c>
@@ -4993,13 +4990,13 @@
         <v>7</v>
       </c>
       <c r="C309" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D309" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>6</v>
       </c>
@@ -5007,13 +5004,13 @@
         <v>7</v>
       </c>
       <c r="C310" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="D310" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>6</v>
       </c>
@@ -5021,27 +5018,28 @@
         <v>7</v>
       </c>
       <c r="C311" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D311" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>6</v>
-      </c>
-      <c r="B312" t="s">
-        <v>7</v>
-      </c>
-      <c r="C312" t="s">
-        <v>16</v>
-      </c>
-      <c r="D312" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>6</v>
+      </c>
+      <c r="B313" t="s">
+        <v>7</v>
+      </c>
+      <c r="C313" t="s">
+        <v>143</v>
+      </c>
+      <c r="D313" t="str">
+        <f t="shared" si="2"/>
+        <v>FS_PTG:%</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>6</v>
       </c>
@@ -5053,10 +5051,10 @@
       </c>
       <c r="D314" t="str">
         <f t="shared" si="2"/>
-        <v>FS_PTG:%</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+        <v>FS_F1S1:%</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>6</v>
       </c>
@@ -5068,10 +5066,10 @@
       </c>
       <c r="D315" t="str">
         <f t="shared" si="2"/>
-        <v>FS_F1S1:%</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+        <v>FS_PBD:%</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>6</v>
       </c>
@@ -5083,10 +5081,10 @@
       </c>
       <c r="D316" t="str">
         <f t="shared" si="2"/>
-        <v>FS_PBD:%</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+        <v>FS_F1S2:%</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>6</v>
       </c>
@@ -5098,10 +5096,10 @@
       </c>
       <c r="D317" t="str">
         <f t="shared" si="2"/>
-        <v>FS_F1S2:%</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+        <v>FS_F2S1:%</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>6</v>
       </c>
@@ -5113,10 +5111,10 @@
       </c>
       <c r="D318" t="str">
         <f t="shared" si="2"/>
-        <v>FS_F2S1:%</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+        <v>FS_F2S2:%</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>6</v>
       </c>
@@ -5128,10 +5126,10 @@
       </c>
       <c r="D319" t="str">
         <f t="shared" si="2"/>
-        <v>FS_F2S2:%</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+        <v>FS_F3S1:%</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>6</v>
       </c>
@@ -5143,10 +5141,10 @@
       </c>
       <c r="D320" t="str">
         <f t="shared" si="2"/>
-        <v>FS_F3S1:%</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+        <v>FS_F3S2:%</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>6</v>
       </c>
@@ -5158,10 +5156,10 @@
       </c>
       <c r="D321" t="str">
         <f t="shared" si="2"/>
-        <v>FS_F3S2:%</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+        <v>RBT_BF00:%</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>6</v>
       </c>
@@ -5173,27 +5171,12 @@
       </c>
       <c r="D322" t="str">
         <f t="shared" si="2"/>
-        <v>RBT_BF00:%</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>6</v>
-      </c>
-      <c r="B323" t="s">
-        <v>7</v>
-      </c>
-      <c r="C323" t="s">
+        <v>RBT_RFFS:%</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
         <v>153</v>
-      </c>
-      <c r="D323" t="str">
-        <f t="shared" si="2"/>
-        <v>RBT_RFFS:%</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -5211,7 +5194,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5223,7 +5206,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/conf-core/src/test/resources/dataloader/conf-data-slot-pairs.xlsx
+++ b/conf-core/src/test/resources/dataloader/conf-data-slot-pairs.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\dataloader\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="4440" windowWidth="23136" windowHeight="12660"/>
+    <workbookView xWindow="1065" yWindow="4440" windowWidth="23130" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="180">
   <si>
     <t>Logical Component Relationships</t>
   </si>
@@ -553,6 +558,9 @@
   </si>
   <si>
     <t>ReA3 Components</t>
+  </si>
+  <si>
+    <t>_ROOT</t>
   </si>
 </sst>
 </file>
@@ -621,6 +629,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -668,7 +679,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -703,7 +714,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -912,27 +923,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E325"/>
+  <dimension ref="A1:E326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -940,10 +951,10 @@
         <v>41557</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -957,7 +968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -965,13 +976,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -982,38 +993,38 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1024,10 +1035,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1038,38 +1049,38 @@
         <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1079,11 +1090,11 @@
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1094,10 +1105,10 @@
         <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1108,10 +1119,10 @@
         <v>11</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1122,10 +1133,10 @@
         <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1136,10 +1147,10 @@
         <v>11</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1150,33 +1161,33 @@
         <v>11</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E24" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1187,10 +1198,10 @@
         <v>16</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1201,10 +1212,10 @@
         <v>16</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1215,10 +1226,10 @@
         <v>16</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1229,10 +1240,10 @@
         <v>16</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1243,10 +1254,10 @@
         <v>16</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1257,10 +1268,10 @@
         <v>16</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1271,30 +1282,30 @@
         <v>16</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D33" s="3"/>
-      <c r="E33" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="3"/>
+      <c r="E34" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1305,10 +1316,10 @@
         <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1319,10 +1330,10 @@
         <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1333,10 +1344,10 @@
         <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1347,10 +1358,10 @@
         <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1361,52 +1372,52 @@
         <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="2" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="2" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D42" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1417,24 +1428,24 @@
         <v>156</v>
       </c>
       <c r="D43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D44" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1445,10 +1456,10 @@
         <v>158</v>
       </c>
       <c r="D45" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1459,24 +1470,24 @@
         <v>158</v>
       </c>
       <c r="D46" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D47" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -1487,10 +1498,10 @@
         <v>159</v>
       </c>
       <c r="D48" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -1501,10 +1512,10 @@
         <v>159</v>
       </c>
       <c r="D49" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -1515,10 +1526,10 @@
         <v>159</v>
       </c>
       <c r="D50" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -1529,24 +1540,24 @@
         <v>159</v>
       </c>
       <c r="D51" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D52" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -1557,10 +1568,10 @@
         <v>157</v>
       </c>
       <c r="D53" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -1571,10 +1582,10 @@
         <v>157</v>
       </c>
       <c r="D54" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -1585,10 +1596,10 @@
         <v>157</v>
       </c>
       <c r="D55" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -1599,10 +1610,10 @@
         <v>157</v>
       </c>
       <c r="D56" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -1613,24 +1624,24 @@
         <v>157</v>
       </c>
       <c r="D57" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -1641,10 +1652,10 @@
         <v>17</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -1655,10 +1666,10 @@
         <v>17</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -1669,10 +1680,10 @@
         <v>17</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -1683,10 +1694,10 @@
         <v>17</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -1697,10 +1708,10 @@
         <v>17</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -1710,11 +1721,11 @@
       <c r="C65" t="s">
         <v>17</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D65" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -1725,10 +1736,10 @@
         <v>17</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -1739,10 +1750,10 @@
         <v>17</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -1753,10 +1764,10 @@
         <v>17</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -1767,10 +1778,10 @@
         <v>17</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -1781,10 +1792,10 @@
         <v>17</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -1795,10 +1806,10 @@
         <v>17</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -1809,10 +1820,10 @@
         <v>17</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -1823,10 +1834,10 @@
         <v>17</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -1837,10 +1848,10 @@
         <v>17</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -1851,10 +1862,10 @@
         <v>17</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -1865,10 +1876,10 @@
         <v>17</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -1879,10 +1890,10 @@
         <v>17</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -1893,10 +1904,10 @@
         <v>17</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -1907,10 +1918,10 @@
         <v>17</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -1921,10 +1932,10 @@
         <v>17</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -1935,10 +1946,10 @@
         <v>17</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -1949,10 +1960,10 @@
         <v>17</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -1963,10 +1974,10 @@
         <v>17</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -1977,10 +1988,10 @@
         <v>17</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -1991,10 +2002,10 @@
         <v>17</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -2005,10 +2016,10 @@
         <v>17</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -2018,11 +2029,11 @@
       <c r="C87" t="s">
         <v>17</v>
       </c>
-      <c r="D87" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D87" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -2033,10 +2044,10 @@
         <v>17</v>
       </c>
       <c r="D88" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -2047,24 +2058,24 @@
         <v>17</v>
       </c>
       <c r="D89" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>6</v>
-      </c>
-      <c r="B92" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" t="s">
-        <v>18</v>
-      </c>
-      <c r="D92" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -2075,10 +2086,10 @@
         <v>18</v>
       </c>
       <c r="D93" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -2089,10 +2100,10 @@
         <v>18</v>
       </c>
       <c r="D94" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -2103,10 +2114,10 @@
         <v>18</v>
       </c>
       <c r="D95" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -2117,10 +2128,10 @@
         <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -2131,10 +2142,10 @@
         <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -2145,10 +2156,10 @@
         <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -2159,10 +2170,10 @@
         <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -2173,10 +2184,10 @@
         <v>18</v>
       </c>
       <c r="D100" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -2187,24 +2198,24 @@
         <v>18</v>
       </c>
       <c r="D101" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>6</v>
-      </c>
-      <c r="B103" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" t="s">
-        <v>19</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -2215,10 +2226,10 @@
         <v>19</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -2229,10 +2240,10 @@
         <v>19</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -2243,10 +2254,10 @@
         <v>19</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -2257,10 +2268,10 @@
         <v>19</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -2271,10 +2282,10 @@
         <v>19</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -2285,10 +2296,10 @@
         <v>19</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>6</v>
       </c>
@@ -2299,10 +2310,10 @@
         <v>19</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>6</v>
       </c>
@@ -2313,10 +2324,10 @@
         <v>19</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>6</v>
       </c>
@@ -2327,10 +2338,10 @@
         <v>19</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>6</v>
       </c>
@@ -2341,10 +2352,10 @@
         <v>19</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -2355,10 +2366,10 @@
         <v>19</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -2369,10 +2380,10 @@
         <v>19</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -2383,10 +2394,10 @@
         <v>19</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -2397,10 +2408,10 @@
         <v>19</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -2411,10 +2422,10 @@
         <v>19</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -2425,10 +2436,10 @@
         <v>19</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -2439,10 +2450,10 @@
         <v>19</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -2453,10 +2464,10 @@
         <v>19</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -2467,10 +2478,10 @@
         <v>19</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -2481,10 +2492,10 @@
         <v>19</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -2495,10 +2506,10 @@
         <v>19</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -2509,10 +2520,10 @@
         <v>19</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>6</v>
       </c>
@@ -2523,10 +2534,10 @@
         <v>19</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>6</v>
       </c>
@@ -2536,11 +2547,11 @@
       <c r="C127" t="s">
         <v>19</v>
       </c>
-      <c r="D127" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D127" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -2551,10 +2562,10 @@
         <v>19</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>6</v>
       </c>
@@ -2565,10 +2576,10 @@
         <v>19</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>6</v>
       </c>
@@ -2579,10 +2590,10 @@
         <v>19</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>6</v>
       </c>
@@ -2593,10 +2604,10 @@
         <v>19</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -2607,10 +2618,10 @@
         <v>19</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>6</v>
       </c>
@@ -2621,10 +2632,10 @@
         <v>19</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>6</v>
       </c>
@@ -2635,10 +2646,10 @@
         <v>19</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -2649,10 +2660,10 @@
         <v>19</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>6</v>
       </c>
@@ -2663,10 +2674,10 @@
         <v>19</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -2677,10 +2688,10 @@
         <v>19</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -2691,10 +2702,10 @@
         <v>19</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -2705,10 +2716,10 @@
         <v>19</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>6</v>
       </c>
@@ -2719,10 +2730,10 @@
         <v>19</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -2733,10 +2744,10 @@
         <v>19</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -2747,10 +2758,10 @@
         <v>19</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -2761,10 +2772,10 @@
         <v>19</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -2775,10 +2786,10 @@
         <v>19</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>6</v>
       </c>
@@ -2789,10 +2800,10 @@
         <v>19</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -2803,10 +2814,10 @@
         <v>19</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -2817,10 +2828,10 @@
         <v>19</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -2831,10 +2842,10 @@
         <v>19</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -2845,10 +2856,10 @@
         <v>19</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -2859,24 +2870,24 @@
         <v>19</v>
       </c>
       <c r="D150" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151" t="s">
+        <v>19</v>
+      </c>
+      <c r="D151" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>6</v>
-      </c>
-      <c r="B152" t="s">
-        <v>7</v>
-      </c>
-      <c r="C152" t="s">
-        <v>20</v>
-      </c>
-      <c r="D152" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -2887,10 +2898,10 @@
         <v>20</v>
       </c>
       <c r="D153" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>6</v>
       </c>
@@ -2901,10 +2912,10 @@
         <v>20</v>
       </c>
       <c r="D154" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -2915,24 +2926,24 @@
         <v>20</v>
       </c>
       <c r="D155" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>6</v>
+      </c>
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" t="s">
+        <v>20</v>
+      </c>
+      <c r="D156" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>6</v>
-      </c>
-      <c r="B159" t="s">
-        <v>7</v>
-      </c>
-      <c r="C159" t="s">
-        <v>21</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>6</v>
       </c>
@@ -2943,10 +2954,10 @@
         <v>21</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>6</v>
       </c>
@@ -2957,10 +2968,10 @@
         <v>21</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -2971,10 +2982,10 @@
         <v>21</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -2985,10 +2996,10 @@
         <v>21</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>6</v>
       </c>
@@ -2999,10 +3010,10 @@
         <v>21</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>6</v>
       </c>
@@ -3013,10 +3024,10 @@
         <v>21</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -3027,10 +3038,10 @@
         <v>21</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>6</v>
       </c>
@@ -3041,10 +3052,10 @@
         <v>21</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -3055,10 +3066,10 @@
         <v>21</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>6</v>
       </c>
@@ -3069,10 +3080,10 @@
         <v>21</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -3083,24 +3094,24 @@
         <v>21</v>
       </c>
       <c r="D170" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" t="s">
+        <v>21</v>
+      </c>
+      <c r="D171" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>6</v>
-      </c>
-      <c r="B173" t="s">
-        <v>7</v>
-      </c>
-      <c r="C173" t="s">
-        <v>22</v>
-      </c>
-      <c r="D173" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>6</v>
       </c>
@@ -3111,10 +3122,10 @@
         <v>22</v>
       </c>
       <c r="D174" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>6</v>
       </c>
@@ -3125,1780 +3136,1780 @@
         <v>22</v>
       </c>
       <c r="D175" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" t="s">
+        <v>22</v>
+      </c>
+      <c r="D176" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>6</v>
-      </c>
-      <c r="B178" t="s">
-        <v>7</v>
-      </c>
-      <c r="C178" s="3" t="s">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>6</v>
+      </c>
+      <c r="B179" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D178" t="str">
-        <f>CONCATENATE(C178,":%")</f>
+      <c r="D179" t="str">
+        <f>CONCATENATE(C179,":%")</f>
         <v>FE_SRC1:%</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>6</v>
-      </c>
-      <c r="B179" t="s">
-        <v>7</v>
-      </c>
-      <c r="C179" s="3" t="s">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>6</v>
+      </c>
+      <c r="B180" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D179" t="str">
-        <f t="shared" ref="D179:D185" si="0">CONCATENATE(C179,":%")</f>
+      <c r="D180" t="str">
+        <f t="shared" ref="D180:D186" si="0">CONCATENATE(C180,":%")</f>
         <v>FE_SRC2:%</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>6</v>
-      </c>
-      <c r="B180" t="s">
-        <v>7</v>
-      </c>
-      <c r="C180" s="3" t="s">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>6</v>
+      </c>
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D180" t="str">
+      <c r="D181" t="str">
         <f t="shared" si="0"/>
         <v>FE_SCS1:%</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>6</v>
-      </c>
-      <c r="B181" t="s">
-        <v>7</v>
-      </c>
-      <c r="C181" s="3" t="s">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>6</v>
+      </c>
+      <c r="B182" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D181" t="str">
+      <c r="D182" t="str">
         <f t="shared" si="0"/>
         <v>FE_SCS2:%</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>6</v>
-      </c>
-      <c r="B182" t="s">
-        <v>7</v>
-      </c>
-      <c r="C182" s="3" t="s">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>6</v>
+      </c>
+      <c r="B183" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D182" t="str">
+      <c r="D183" t="str">
         <f t="shared" si="0"/>
         <v>FE_LEBT:%</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>6</v>
-      </c>
-      <c r="B183" t="s">
-        <v>7</v>
-      </c>
-      <c r="C183" s="3" t="s">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>6</v>
+      </c>
+      <c r="B184" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D183" t="str">
+      <c r="D184" t="str">
         <f t="shared" si="0"/>
         <v>FE_RFQ:%</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>6</v>
-      </c>
-      <c r="B184" t="s">
-        <v>7</v>
-      </c>
-      <c r="C184" s="3" t="s">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>6</v>
+      </c>
+      <c r="B185" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D184" t="str">
+      <c r="D185" t="str">
         <f t="shared" si="0"/>
         <v>FE_MEBT:%</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>6</v>
-      </c>
-      <c r="B185" t="s">
-        <v>7</v>
-      </c>
-      <c r="C185" s="3" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D185" t="str">
+      <c r="D186" t="str">
         <f t="shared" si="0"/>
         <v>FE_BTS:%</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>6</v>
-      </c>
-      <c r="B188" t="s">
-        <v>7</v>
-      </c>
-      <c r="C188" s="3" t="s">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>6</v>
+      </c>
+      <c r="B189" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D188" t="str">
-        <f>CONCATENATE(C188,":%")</f>
+      <c r="D189" t="str">
+        <f>CONCATENATE(C189,":%")</f>
         <v>LS1_CA01:%</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>6</v>
-      </c>
-      <c r="B189" t="s">
-        <v>7</v>
-      </c>
-      <c r="C189" s="3" t="s">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>6</v>
+      </c>
+      <c r="B190" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D189" t="str">
-        <f t="shared" ref="D189:D252" si="1">CONCATENATE(C189,":%")</f>
+      <c r="D190" t="str">
+        <f t="shared" ref="D190:D253" si="1">CONCATENATE(C190,":%")</f>
         <v>LS1_WA01:%</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>6</v>
-      </c>
-      <c r="B190" t="s">
-        <v>7</v>
-      </c>
-      <c r="C190" s="3" t="s">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>6</v>
+      </c>
+      <c r="B191" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D190" t="str">
+      <c r="D191" t="str">
         <f t="shared" si="1"/>
         <v>LS1_CA02:%</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>6</v>
-      </c>
-      <c r="B191" t="s">
-        <v>7</v>
-      </c>
-      <c r="C191" s="3" t="s">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>6</v>
+      </c>
+      <c r="B192" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D191" t="str">
+      <c r="D192" t="str">
         <f t="shared" si="1"/>
         <v>LS1_WA02:%</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>6</v>
-      </c>
-      <c r="B192" t="s">
-        <v>7</v>
-      </c>
-      <c r="C192" s="3" t="s">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>6</v>
+      </c>
+      <c r="B193" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D192" t="str">
+      <c r="D193" t="str">
         <f t="shared" si="1"/>
         <v>LS1_CA03:%</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>6</v>
-      </c>
-      <c r="B193" t="s">
-        <v>7</v>
-      </c>
-      <c r="C193" s="3" t="s">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>6</v>
+      </c>
+      <c r="B194" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D193" t="str">
+      <c r="D194" t="str">
         <f t="shared" si="1"/>
         <v>LS1_WA03:%</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>6</v>
-      </c>
-      <c r="B194" t="s">
-        <v>7</v>
-      </c>
-      <c r="C194" s="4" t="s">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>6</v>
+      </c>
+      <c r="B195" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D194" t="str">
+      <c r="D195" t="str">
         <f t="shared" si="1"/>
         <v>LS1_CB01:%</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>6</v>
-      </c>
-      <c r="B195" t="s">
-        <v>7</v>
-      </c>
-      <c r="C195" s="4" t="s">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>6</v>
+      </c>
+      <c r="B196" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D195" t="str">
+      <c r="D196" t="str">
         <f t="shared" si="1"/>
         <v>LS1_WB01:%</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>6</v>
-      </c>
-      <c r="B196" t="s">
-        <v>7</v>
-      </c>
-      <c r="C196" s="4" t="s">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>6</v>
+      </c>
+      <c r="B197" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D196" t="str">
+      <c r="D197" t="str">
         <f t="shared" si="1"/>
         <v>LS1_CB02:%</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>6</v>
-      </c>
-      <c r="B197" t="s">
-        <v>7</v>
-      </c>
-      <c r="C197" s="4" t="s">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>6</v>
+      </c>
+      <c r="B198" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D197" t="str">
+      <c r="D198" t="str">
         <f t="shared" si="1"/>
         <v>LS1_WB02:%</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>6</v>
-      </c>
-      <c r="B198" t="s">
-        <v>7</v>
-      </c>
-      <c r="C198" s="4" t="s">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>6</v>
+      </c>
+      <c r="B199" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D198" t="str">
+      <c r="D199" t="str">
         <f t="shared" si="1"/>
         <v>LS1_CB03:%</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>6</v>
-      </c>
-      <c r="B199" t="s">
-        <v>7</v>
-      </c>
-      <c r="C199" s="4" t="s">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>6</v>
+      </c>
+      <c r="B200" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D199" t="str">
+      <c r="D200" t="str">
         <f t="shared" si="1"/>
         <v>LS1_WB03:%</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>6</v>
-      </c>
-      <c r="B200" t="s">
-        <v>7</v>
-      </c>
-      <c r="C200" s="4" t="s">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>6</v>
+      </c>
+      <c r="B201" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D200" t="str">
+      <c r="D201" t="str">
         <f t="shared" si="1"/>
         <v>LS1_CB04:%</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
-        <v>6</v>
-      </c>
-      <c r="B201" t="s">
-        <v>7</v>
-      </c>
-      <c r="C201" s="4" t="s">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>6</v>
+      </c>
+      <c r="B202" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D201" t="str">
+      <c r="D202" t="str">
         <f t="shared" si="1"/>
         <v>LS1_WB04:%</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
-        <v>6</v>
-      </c>
-      <c r="B202" t="s">
-        <v>7</v>
-      </c>
-      <c r="C202" s="4" t="s">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>6</v>
+      </c>
+      <c r="B203" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D202" t="str">
+      <c r="D203" t="str">
         <f t="shared" si="1"/>
         <v>LS1_CB05:%</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>6</v>
-      </c>
-      <c r="B203" t="s">
-        <v>7</v>
-      </c>
-      <c r="C203" s="4" t="s">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>6</v>
+      </c>
+      <c r="B204" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D203" t="str">
+      <c r="D204" t="str">
         <f t="shared" si="1"/>
         <v>LS1_WB05:%</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
-        <v>6</v>
-      </c>
-      <c r="B204" t="s">
-        <v>7</v>
-      </c>
-      <c r="C204" s="4" t="s">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>6</v>
+      </c>
+      <c r="B205" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D204" t="str">
+      <c r="D205" t="str">
         <f t="shared" si="1"/>
         <v>LS1_CB06:%</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
-        <v>6</v>
-      </c>
-      <c r="B205" t="s">
-        <v>7</v>
-      </c>
-      <c r="C205" s="4" t="s">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>6</v>
+      </c>
+      <c r="B206" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D205" t="str">
+      <c r="D206" t="str">
         <f t="shared" si="1"/>
         <v>LS1_WB06:%</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
-        <v>6</v>
-      </c>
-      <c r="B206" t="s">
-        <v>7</v>
-      </c>
-      <c r="C206" s="4" t="s">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>6</v>
+      </c>
+      <c r="B207" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D206" t="str">
+      <c r="D207" t="str">
         <f t="shared" si="1"/>
         <v>LS1_CB07:%</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
-        <v>6</v>
-      </c>
-      <c r="B207" t="s">
-        <v>7</v>
-      </c>
-      <c r="C207" s="4" t="s">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>6</v>
+      </c>
+      <c r="B208" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D207" t="str">
+      <c r="D208" t="str">
         <f t="shared" si="1"/>
         <v>LS1_WB07:%</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
-        <v>6</v>
-      </c>
-      <c r="B208" t="s">
-        <v>7</v>
-      </c>
-      <c r="C208" s="4" t="s">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>6</v>
+      </c>
+      <c r="B209" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D208" t="str">
+      <c r="D209" t="str">
         <f t="shared" si="1"/>
         <v>LS1_CB08:%</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
-        <v>6</v>
-      </c>
-      <c r="B209" t="s">
-        <v>7</v>
-      </c>
-      <c r="C209" s="4" t="s">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>6</v>
+      </c>
+      <c r="B210" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D209" t="str">
+      <c r="D210" t="str">
         <f t="shared" si="1"/>
         <v>LS1_WB08:%</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
-        <v>6</v>
-      </c>
-      <c r="B210" t="s">
-        <v>7</v>
-      </c>
-      <c r="C210" s="4" t="s">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>6</v>
+      </c>
+      <c r="B211" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D210" t="str">
+      <c r="D211" t="str">
         <f t="shared" si="1"/>
         <v>LS1_CB09:%</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
-        <v>6</v>
-      </c>
-      <c r="B211" t="s">
-        <v>7</v>
-      </c>
-      <c r="C211" s="4" t="s">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>6</v>
+      </c>
+      <c r="B212" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D211" t="str">
+      <c r="D212" t="str">
         <f t="shared" si="1"/>
         <v>LS1_WB09:%</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
-        <v>6</v>
-      </c>
-      <c r="B212" t="s">
-        <v>7</v>
-      </c>
-      <c r="C212" s="4" t="s">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>6</v>
+      </c>
+      <c r="B213" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D212" t="str">
+      <c r="D213" t="str">
         <f t="shared" si="1"/>
         <v>LS1_CB10:%</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
-        <v>6</v>
-      </c>
-      <c r="B213" t="s">
-        <v>7</v>
-      </c>
-      <c r="C213" s="4" t="s">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>6</v>
+      </c>
+      <c r="B214" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D213" t="str">
+      <c r="D214" t="str">
         <f t="shared" si="1"/>
         <v>LS1_WB10:%</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
-        <v>6</v>
-      </c>
-      <c r="B214" t="s">
-        <v>7</v>
-      </c>
-      <c r="C214" s="4" t="s">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>6</v>
+      </c>
+      <c r="B215" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D214" t="str">
+      <c r="D215" t="str">
         <f t="shared" si="1"/>
         <v>LS1_CB11:%</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
-        <v>6</v>
-      </c>
-      <c r="B215" t="s">
-        <v>7</v>
-      </c>
-      <c r="C215" s="4" t="s">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>6</v>
+      </c>
+      <c r="B216" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D215" t="str">
+      <c r="D216" t="str">
         <f t="shared" si="1"/>
         <v>LS1_WB11:%</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B216" t="s">
-        <v>7</v>
-      </c>
-      <c r="C216" t="s">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217" t="s">
         <v>60</v>
       </c>
-      <c r="D216" t="str">
+      <c r="D217" t="str">
         <f t="shared" si="1"/>
         <v>LS1_BTS1:%</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
-        <v>6</v>
-      </c>
-      <c r="B217" t="s">
-        <v>7</v>
-      </c>
-      <c r="C217" t="s">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>6</v>
+      </c>
+      <c r="B218" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218" t="s">
         <v>61</v>
       </c>
-      <c r="D217" t="str">
+      <c r="D218" t="str">
         <f t="shared" si="1"/>
         <v>LS1_CF01:%</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B218" t="s">
-        <v>7</v>
-      </c>
-      <c r="C218" t="s">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" t="s">
         <v>62</v>
       </c>
-      <c r="D218" t="str">
+      <c r="D219" t="str">
         <f t="shared" si="1"/>
         <v>LS1_BTS2:%</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
-        <v>6</v>
-      </c>
-      <c r="B219" t="s">
-        <v>7</v>
-      </c>
-      <c r="C219" t="s">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>6</v>
+      </c>
+      <c r="B220" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220" t="s">
         <v>63</v>
       </c>
-      <c r="D219" t="str">
+      <c r="D220" t="str">
         <f t="shared" si="1"/>
         <v>FS1_CF02:%</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
-        <v>6</v>
-      </c>
-      <c r="B220" t="s">
-        <v>7</v>
-      </c>
-      <c r="C220" t="s">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>6</v>
+      </c>
+      <c r="B221" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221" t="s">
         <v>64</v>
       </c>
-      <c r="D220" t="str">
+      <c r="D221" t="str">
         <f t="shared" si="1"/>
         <v>FS1_CSS:%</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
-        <v>6</v>
-      </c>
-      <c r="B221" t="s">
-        <v>7</v>
-      </c>
-      <c r="C221" t="s">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>6</v>
+      </c>
+      <c r="B222" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" t="s">
         <v>65</v>
       </c>
-      <c r="D221" t="str">
+      <c r="D222" t="str">
         <f t="shared" si="1"/>
         <v>FS1_STRL:%</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
-        <v>6</v>
-      </c>
-      <c r="B222" t="s">
-        <v>7</v>
-      </c>
-      <c r="C222" t="s">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>6</v>
+      </c>
+      <c r="B223" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223" t="s">
         <v>66</v>
       </c>
-      <c r="D222" t="str">
+      <c r="D223" t="str">
         <f t="shared" si="1"/>
         <v>FS1_CE01:%</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
-        <v>6</v>
-      </c>
-      <c r="B223" t="s">
-        <v>7</v>
-      </c>
-      <c r="C223" t="s">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>6</v>
+      </c>
+      <c r="B224" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224" t="s">
         <v>67</v>
       </c>
-      <c r="D223" t="str">
+      <c r="D224" t="str">
         <f t="shared" si="1"/>
         <v>FS1_CH01:%</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
-        <v>6</v>
-      </c>
-      <c r="B224" t="s">
-        <v>7</v>
-      </c>
-      <c r="C224" t="s">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>6</v>
+      </c>
+      <c r="B225" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225" t="s">
         <v>68</v>
       </c>
-      <c r="D224" t="str">
+      <c r="D225" t="str">
         <f t="shared" si="1"/>
         <v>FS1_BBS:%</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
-        <v>6</v>
-      </c>
-      <c r="B225" t="s">
-        <v>7</v>
-      </c>
-      <c r="C225" t="s">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>6</v>
+      </c>
+      <c r="B226" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226" t="s">
         <v>69</v>
       </c>
-      <c r="D225" t="str">
+      <c r="D226" t="str">
         <f t="shared" si="1"/>
         <v>FS1_BMS:%</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
-        <v>6</v>
-      </c>
-      <c r="B226" t="s">
-        <v>7</v>
-      </c>
-      <c r="C226" t="s">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>6</v>
+      </c>
+      <c r="B227" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227" t="s">
         <v>70</v>
       </c>
-      <c r="D226" t="str">
+      <c r="D227" t="str">
         <f t="shared" si="1"/>
         <v>FS1_CE02:%</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
-        <v>6</v>
-      </c>
-      <c r="B227" t="s">
-        <v>7</v>
-      </c>
-      <c r="C227" t="s">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>6</v>
+      </c>
+      <c r="B228" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228" t="s">
         <v>71</v>
       </c>
-      <c r="D227" t="str">
+      <c r="D228" t="str">
         <f t="shared" si="1"/>
         <v>FS1_CH02:%</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
-        <v>6</v>
-      </c>
-      <c r="B228" t="s">
-        <v>7</v>
-      </c>
-      <c r="C228" t="s">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>6</v>
+      </c>
+      <c r="B229" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229" t="s">
         <v>72</v>
       </c>
-      <c r="D228" t="str">
+      <c r="D229" t="str">
         <f t="shared" si="1"/>
         <v>FS1_BTS:%</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>6</v>
-      </c>
-      <c r="B231" t="s">
-        <v>7</v>
-      </c>
-      <c r="C231" s="3" t="s">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>6</v>
+      </c>
+      <c r="B232" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D231" t="str">
+      <c r="D232" t="str">
         <f t="shared" si="1"/>
         <v>LS2_CC01:%</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
-        <v>6</v>
-      </c>
-      <c r="B232" t="s">
-        <v>7</v>
-      </c>
-      <c r="C232" s="3" t="s">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>6</v>
+      </c>
+      <c r="B233" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D232" t="str">
+      <c r="D233" t="str">
         <f t="shared" si="1"/>
         <v>LS2_WC01:%</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
-        <v>6</v>
-      </c>
-      <c r="B233" t="s">
-        <v>7</v>
-      </c>
-      <c r="C233" s="3" t="s">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>6</v>
+      </c>
+      <c r="B234" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D233" t="str">
+      <c r="D234" t="str">
         <f t="shared" si="1"/>
         <v>LS2_CC02:%</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
-        <v>6</v>
-      </c>
-      <c r="B234" t="s">
-        <v>7</v>
-      </c>
-      <c r="C234" s="3" t="s">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>6</v>
+      </c>
+      <c r="B235" t="s">
+        <v>7</v>
+      </c>
+      <c r="C235" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D234" t="str">
+      <c r="D235" t="str">
         <f t="shared" si="1"/>
         <v>LS2_WC02:%</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
-        <v>6</v>
-      </c>
-      <c r="B235" t="s">
-        <v>7</v>
-      </c>
-      <c r="C235" s="3" t="s">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>6</v>
+      </c>
+      <c r="B236" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D235" t="str">
+      <c r="D236" t="str">
         <f t="shared" si="1"/>
         <v>LS2_CC03:%</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
-        <v>6</v>
-      </c>
-      <c r="B236" t="s">
-        <v>7</v>
-      </c>
-      <c r="C236" s="3" t="s">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>6</v>
+      </c>
+      <c r="B237" t="s">
+        <v>7</v>
+      </c>
+      <c r="C237" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D236" t="str">
+      <c r="D237" t="str">
         <f t="shared" si="1"/>
         <v>LS2_WC03:%</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
-        <v>6</v>
-      </c>
-      <c r="B237" t="s">
-        <v>7</v>
-      </c>
-      <c r="C237" s="3" t="s">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>6</v>
+      </c>
+      <c r="B238" t="s">
+        <v>7</v>
+      </c>
+      <c r="C238" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D237" t="str">
+      <c r="D238" t="str">
         <f t="shared" si="1"/>
         <v>LS2_CC04:%</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
-        <v>6</v>
-      </c>
-      <c r="B238" t="s">
-        <v>7</v>
-      </c>
-      <c r="C238" s="3" t="s">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>6</v>
+      </c>
+      <c r="B239" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D238" t="str">
+      <c r="D239" t="str">
         <f t="shared" si="1"/>
         <v>LS2_WC04:%</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
-        <v>6</v>
-      </c>
-      <c r="B239" t="s">
-        <v>7</v>
-      </c>
-      <c r="C239" s="3" t="s">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>6</v>
+      </c>
+      <c r="B240" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D239" t="str">
+      <c r="D240" t="str">
         <f t="shared" si="1"/>
         <v>LS2_CC05:%</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
-        <v>6</v>
-      </c>
-      <c r="B240" t="s">
-        <v>7</v>
-      </c>
-      <c r="C240" s="3" t="s">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>6</v>
+      </c>
+      <c r="B241" t="s">
+        <v>7</v>
+      </c>
+      <c r="C241" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D240" t="str">
+      <c r="D241" t="str">
         <f t="shared" si="1"/>
         <v>LS2_WC05:%</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
-        <v>6</v>
-      </c>
-      <c r="B241" t="s">
-        <v>7</v>
-      </c>
-      <c r="C241" s="3" t="s">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>6</v>
+      </c>
+      <c r="B242" t="s">
+        <v>7</v>
+      </c>
+      <c r="C242" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D241" t="str">
+      <c r="D242" t="str">
         <f t="shared" si="1"/>
         <v>LS2_CC06:%</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>6</v>
-      </c>
-      <c r="B242" t="s">
-        <v>7</v>
-      </c>
-      <c r="C242" s="3" t="s">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>6</v>
+      </c>
+      <c r="B243" t="s">
+        <v>7</v>
+      </c>
+      <c r="C243" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D242" t="str">
+      <c r="D243" t="str">
         <f t="shared" si="1"/>
         <v>LS2_WC06:%</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
-        <v>6</v>
-      </c>
-      <c r="B243" t="s">
-        <v>7</v>
-      </c>
-      <c r="C243" s="3" t="s">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>6</v>
+      </c>
+      <c r="B244" t="s">
+        <v>7</v>
+      </c>
+      <c r="C244" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D243" t="str">
+      <c r="D244" t="str">
         <f t="shared" si="1"/>
         <v>LS2_CC07:%</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
-        <v>6</v>
-      </c>
-      <c r="B244" t="s">
-        <v>7</v>
-      </c>
-      <c r="C244" s="3" t="s">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>6</v>
+      </c>
+      <c r="B245" t="s">
+        <v>7</v>
+      </c>
+      <c r="C245" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D244" t="str">
+      <c r="D245" t="str">
         <f t="shared" si="1"/>
         <v>LS2_WC07:%</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
-        <v>6</v>
-      </c>
-      <c r="B245" t="s">
-        <v>7</v>
-      </c>
-      <c r="C245" s="3" t="s">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>6</v>
+      </c>
+      <c r="B246" t="s">
+        <v>7</v>
+      </c>
+      <c r="C246" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D245" t="str">
+      <c r="D246" t="str">
         <f t="shared" si="1"/>
         <v>LS2_CC08:%</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
-        <v>6</v>
-      </c>
-      <c r="B246" t="s">
-        <v>7</v>
-      </c>
-      <c r="C246" s="3" t="s">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>6</v>
+      </c>
+      <c r="B247" t="s">
+        <v>7</v>
+      </c>
+      <c r="C247" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D246" t="str">
+      <c r="D247" t="str">
         <f t="shared" si="1"/>
         <v>LS2_WC08:%</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
-        <v>6</v>
-      </c>
-      <c r="B247" t="s">
-        <v>7</v>
-      </c>
-      <c r="C247" s="3" t="s">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>6</v>
+      </c>
+      <c r="B248" t="s">
+        <v>7</v>
+      </c>
+      <c r="C248" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D247" t="str">
+      <c r="D248" t="str">
         <f t="shared" si="1"/>
         <v>LS2_CC09:%</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
-        <v>6</v>
-      </c>
-      <c r="B248" t="s">
-        <v>7</v>
-      </c>
-      <c r="C248" s="3" t="s">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>6</v>
+      </c>
+      <c r="B249" t="s">
+        <v>7</v>
+      </c>
+      <c r="C249" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D248" t="str">
+      <c r="D249" t="str">
         <f t="shared" si="1"/>
         <v>LS2_WC09:%</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
-        <v>6</v>
-      </c>
-      <c r="B249" t="s">
-        <v>7</v>
-      </c>
-      <c r="C249" s="3" t="s">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>6</v>
+      </c>
+      <c r="B250" t="s">
+        <v>7</v>
+      </c>
+      <c r="C250" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D249" t="str">
+      <c r="D250" t="str">
         <f t="shared" si="1"/>
         <v>LS2_CC10:%</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
-        <v>6</v>
-      </c>
-      <c r="B250" t="s">
-        <v>7</v>
-      </c>
-      <c r="C250" s="3" t="s">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>6</v>
+      </c>
+      <c r="B251" t="s">
+        <v>7</v>
+      </c>
+      <c r="C251" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D250" t="str">
+      <c r="D251" t="str">
         <f t="shared" si="1"/>
         <v>LS2_WC10:%</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
-        <v>6</v>
-      </c>
-      <c r="B251" t="s">
-        <v>7</v>
-      </c>
-      <c r="C251" s="3" t="s">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>6</v>
+      </c>
+      <c r="B252" t="s">
+        <v>7</v>
+      </c>
+      <c r="C252" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D251" t="str">
+      <c r="D252" t="str">
         <f t="shared" si="1"/>
         <v>LS2_CC11:%</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
-        <v>6</v>
-      </c>
-      <c r="B252" t="s">
-        <v>7</v>
-      </c>
-      <c r="C252" s="3" t="s">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>6</v>
+      </c>
+      <c r="B253" t="s">
+        <v>7</v>
+      </c>
+      <c r="C253" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D252" t="str">
+      <c r="D253" t="str">
         <f t="shared" si="1"/>
         <v>LS2_WC11:%</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
-        <v>6</v>
-      </c>
-      <c r="B253" t="s">
-        <v>7</v>
-      </c>
-      <c r="C253" s="3" t="s">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>6</v>
+      </c>
+      <c r="B254" t="s">
+        <v>7</v>
+      </c>
+      <c r="C254" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D253" t="str">
-        <f t="shared" ref="D253:D322" si="2">CONCATENATE(C253,":%")</f>
+      <c r="D254" t="str">
+        <f t="shared" ref="D254:D323" si="2">CONCATENATE(C254,":%")</f>
         <v>LS2_CC12:%</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
-        <v>6</v>
-      </c>
-      <c r="B254" t="s">
-        <v>7</v>
-      </c>
-      <c r="C254" s="3" t="s">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>6</v>
+      </c>
+      <c r="B255" t="s">
+        <v>7</v>
+      </c>
+      <c r="C255" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D254" t="str">
+      <c r="D255" t="str">
         <f t="shared" si="2"/>
         <v>LS2_WC12:%</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
-        <v>6</v>
-      </c>
-      <c r="B255" t="s">
-        <v>7</v>
-      </c>
-      <c r="C255" s="4" t="s">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>6</v>
+      </c>
+      <c r="B256" t="s">
+        <v>7</v>
+      </c>
+      <c r="C256" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D255" t="str">
+      <c r="D256" t="str">
         <f t="shared" si="2"/>
         <v>LS2_CD01:%</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
-        <v>6</v>
-      </c>
-      <c r="B256" t="s">
-        <v>7</v>
-      </c>
-      <c r="C256" s="4" t="s">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>6</v>
+      </c>
+      <c r="B257" t="s">
+        <v>7</v>
+      </c>
+      <c r="C257" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D256" t="str">
+      <c r="D257" t="str">
         <f t="shared" si="2"/>
         <v>LS2_WD01:%</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
-        <v>6</v>
-      </c>
-      <c r="B257" t="s">
-        <v>7</v>
-      </c>
-      <c r="C257" s="4" t="s">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>6</v>
+      </c>
+      <c r="B258" t="s">
+        <v>7</v>
+      </c>
+      <c r="C258" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D257" t="str">
+      <c r="D258" t="str">
         <f t="shared" si="2"/>
         <v>LS2_CD02:%</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>6</v>
-      </c>
-      <c r="B258" t="s">
-        <v>7</v>
-      </c>
-      <c r="C258" s="4" t="s">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>6</v>
+      </c>
+      <c r="B259" t="s">
+        <v>7</v>
+      </c>
+      <c r="C259" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D258" t="str">
+      <c r="D259" t="str">
         <f t="shared" si="2"/>
         <v>LS2_WD02:%</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>6</v>
-      </c>
-      <c r="B259" t="s">
-        <v>7</v>
-      </c>
-      <c r="C259" s="4" t="s">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>6</v>
+      </c>
+      <c r="B260" t="s">
+        <v>7</v>
+      </c>
+      <c r="C260" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D259" t="str">
+      <c r="D260" t="str">
         <f t="shared" si="2"/>
         <v>LS2_CD03:%</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>6</v>
-      </c>
-      <c r="B260" t="s">
-        <v>7</v>
-      </c>
-      <c r="C260" s="4" t="s">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>6</v>
+      </c>
+      <c r="B261" t="s">
+        <v>7</v>
+      </c>
+      <c r="C261" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D260" t="str">
+      <c r="D261" t="str">
         <f t="shared" si="2"/>
         <v>LS2_WD03:%</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>6</v>
-      </c>
-      <c r="B261" t="s">
-        <v>7</v>
-      </c>
-      <c r="C261" s="4" t="s">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>6</v>
+      </c>
+      <c r="B262" t="s">
+        <v>7</v>
+      </c>
+      <c r="C262" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D261" t="str">
+      <c r="D262" t="str">
         <f t="shared" si="2"/>
         <v>LS2_CD04:%</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
-        <v>6</v>
-      </c>
-      <c r="B262" t="s">
-        <v>7</v>
-      </c>
-      <c r="C262" s="4" t="s">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>6</v>
+      </c>
+      <c r="B263" t="s">
+        <v>7</v>
+      </c>
+      <c r="C263" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D262" t="str">
+      <c r="D263" t="str">
         <f t="shared" si="2"/>
         <v>LS2_WD04:%</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
-        <v>6</v>
-      </c>
-      <c r="B263" t="s">
-        <v>7</v>
-      </c>
-      <c r="C263" s="4" t="s">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>6</v>
+      </c>
+      <c r="B264" t="s">
+        <v>7</v>
+      </c>
+      <c r="C264" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D263" t="str">
+      <c r="D264" t="str">
         <f t="shared" si="2"/>
         <v>LS2_CD05:%</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>6</v>
-      </c>
-      <c r="B264" t="s">
-        <v>7</v>
-      </c>
-      <c r="C264" s="4" t="s">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>6</v>
+      </c>
+      <c r="B265" t="s">
+        <v>7</v>
+      </c>
+      <c r="C265" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D264" t="str">
+      <c r="D265" t="str">
         <f t="shared" si="2"/>
         <v>LS2_WD05:%</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>6</v>
-      </c>
-      <c r="B265" t="s">
-        <v>7</v>
-      </c>
-      <c r="C265" s="4" t="s">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>6</v>
+      </c>
+      <c r="B266" t="s">
+        <v>7</v>
+      </c>
+      <c r="C266" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D265" t="str">
+      <c r="D266" t="str">
         <f t="shared" si="2"/>
         <v>LS2_CD06:%</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>6</v>
-      </c>
-      <c r="B266" t="s">
-        <v>7</v>
-      </c>
-      <c r="C266" s="4" t="s">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>6</v>
+      </c>
+      <c r="B267" t="s">
+        <v>7</v>
+      </c>
+      <c r="C267" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D266" t="str">
+      <c r="D267" t="str">
         <f t="shared" si="2"/>
         <v>LS2_WD06:%</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
-        <v>6</v>
-      </c>
-      <c r="B267" t="s">
-        <v>7</v>
-      </c>
-      <c r="C267" s="4" t="s">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>6</v>
+      </c>
+      <c r="B268" t="s">
+        <v>7</v>
+      </c>
+      <c r="C268" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D267" t="str">
+      <c r="D268" t="str">
         <f t="shared" si="2"/>
         <v>LS2_CD07:%</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
-        <v>6</v>
-      </c>
-      <c r="B268" t="s">
-        <v>7</v>
-      </c>
-      <c r="C268" s="4" t="s">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>6</v>
+      </c>
+      <c r="B269" t="s">
+        <v>7</v>
+      </c>
+      <c r="C269" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D268" t="str">
+      <c r="D269" t="str">
         <f t="shared" si="2"/>
         <v>LS2_WD07:%</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
-        <v>6</v>
-      </c>
-      <c r="B269" t="s">
-        <v>7</v>
-      </c>
-      <c r="C269" s="4" t="s">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>6</v>
+      </c>
+      <c r="B270" t="s">
+        <v>7</v>
+      </c>
+      <c r="C270" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D269" t="str">
+      <c r="D270" t="str">
         <f t="shared" si="2"/>
         <v>LS2_CD08:%</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
-        <v>6</v>
-      </c>
-      <c r="B270" t="s">
-        <v>7</v>
-      </c>
-      <c r="C270" s="4" t="s">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>6</v>
+      </c>
+      <c r="B271" t="s">
+        <v>7</v>
+      </c>
+      <c r="C271" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D270" t="str">
+      <c r="D271" t="str">
         <f t="shared" si="2"/>
         <v>LS2_WD08:%</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
-        <v>6</v>
-      </c>
-      <c r="B271" t="s">
-        <v>7</v>
-      </c>
-      <c r="C271" s="4" t="s">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>6</v>
+      </c>
+      <c r="B272" t="s">
+        <v>7</v>
+      </c>
+      <c r="C272" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D271" t="str">
+      <c r="D272" t="str">
         <f t="shared" si="2"/>
         <v>LS2_CD09:%</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
-        <v>6</v>
-      </c>
-      <c r="B272" t="s">
-        <v>7</v>
-      </c>
-      <c r="C272" s="4" t="s">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>6</v>
+      </c>
+      <c r="B273" t="s">
+        <v>7</v>
+      </c>
+      <c r="C273" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D272" t="str">
+      <c r="D273" t="str">
         <f t="shared" si="2"/>
         <v>LS2_WD09:%</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
-        <v>6</v>
-      </c>
-      <c r="B273" t="s">
-        <v>7</v>
-      </c>
-      <c r="C273" s="4" t="s">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>6</v>
+      </c>
+      <c r="B274" t="s">
+        <v>7</v>
+      </c>
+      <c r="C274" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D273" t="str">
+      <c r="D274" t="str">
         <f t="shared" si="2"/>
         <v>LS2_CD10:%</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
-        <v>6</v>
-      </c>
-      <c r="B274" t="s">
-        <v>7</v>
-      </c>
-      <c r="C274" s="4" t="s">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>6</v>
+      </c>
+      <c r="B275" t="s">
+        <v>7</v>
+      </c>
+      <c r="C275" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D274" t="str">
+      <c r="D275" t="str">
         <f t="shared" si="2"/>
         <v>LS2_WD10:%</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
-        <v>6</v>
-      </c>
-      <c r="B275" t="s">
-        <v>7</v>
-      </c>
-      <c r="C275" s="4" t="s">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>6</v>
+      </c>
+      <c r="B276" t="s">
+        <v>7</v>
+      </c>
+      <c r="C276" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D275" t="str">
+      <c r="D276" t="str">
         <f t="shared" si="2"/>
         <v>LS2_CD11:%</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
-        <v>6</v>
-      </c>
-      <c r="B276" t="s">
-        <v>7</v>
-      </c>
-      <c r="C276" s="4" t="s">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>6</v>
+      </c>
+      <c r="B277" t="s">
+        <v>7</v>
+      </c>
+      <c r="C277" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D276" t="str">
+      <c r="D277" t="str">
         <f t="shared" si="2"/>
         <v>LS2_WD11:%</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
-        <v>6</v>
-      </c>
-      <c r="B277" t="s">
-        <v>7</v>
-      </c>
-      <c r="C277" s="4" t="s">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>6</v>
+      </c>
+      <c r="B278" t="s">
+        <v>7</v>
+      </c>
+      <c r="C278" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D277" t="str">
+      <c r="D278" t="str">
         <f t="shared" si="2"/>
         <v>LS2_CD12:%</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
-        <v>6</v>
-      </c>
-      <c r="B278" t="s">
-        <v>7</v>
-      </c>
-      <c r="C278" s="4" t="s">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>6</v>
+      </c>
+      <c r="B279" t="s">
+        <v>7</v>
+      </c>
+      <c r="C279" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D278" t="str">
+      <c r="D279" t="str">
         <f t="shared" si="2"/>
         <v>LS2_WD12:%</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
-        <v>6</v>
-      </c>
-      <c r="B279" t="s">
-        <v>7</v>
-      </c>
-      <c r="C279" t="s">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>6</v>
+      </c>
+      <c r="B280" t="s">
+        <v>7</v>
+      </c>
+      <c r="C280" t="s">
         <v>121</v>
       </c>
-      <c r="D279" t="str">
+      <c r="D280" t="str">
         <f t="shared" si="2"/>
         <v>FS2_BTS:%</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
-        <v>6</v>
-      </c>
-      <c r="B280" t="s">
-        <v>7</v>
-      </c>
-      <c r="C280" t="s">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>6</v>
+      </c>
+      <c r="B281" t="s">
+        <v>7</v>
+      </c>
+      <c r="C281" t="s">
         <v>122</v>
       </c>
-      <c r="D280" t="str">
+      <c r="D281" t="str">
         <f t="shared" si="2"/>
         <v>FS2_BBS:%</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
-        <v>6</v>
-      </c>
-      <c r="B281" t="s">
-        <v>7</v>
-      </c>
-      <c r="C281" t="s">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>6</v>
+      </c>
+      <c r="B282" t="s">
+        <v>7</v>
+      </c>
+      <c r="C282" t="s">
         <v>123</v>
       </c>
-      <c r="D281" t="str">
+      <c r="D282" t="str">
         <f t="shared" si="2"/>
         <v>FS2_BMS:%</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
-        <v>6</v>
-      </c>
-      <c r="B282" t="s">
-        <v>7</v>
-      </c>
-      <c r="C282" t="s">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>6</v>
+      </c>
+      <c r="B283" t="s">
+        <v>7</v>
+      </c>
+      <c r="C283" t="s">
         <v>124</v>
       </c>
-      <c r="D282" t="str">
+      <c r="D283" t="str">
         <f t="shared" si="2"/>
         <v>FS2_CG01:%</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
-        <v>6</v>
-      </c>
-      <c r="B283" t="s">
-        <v>7</v>
-      </c>
-      <c r="C283" s="3" t="s">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>6</v>
+      </c>
+      <c r="B284" t="s">
+        <v>7</v>
+      </c>
+      <c r="C284" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D283" t="str">
+      <c r="D284" t="str">
         <f t="shared" si="2"/>
         <v>LS3_CD01:%</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
-        <v>6</v>
-      </c>
-      <c r="B284" t="s">
-        <v>7</v>
-      </c>
-      <c r="C284" s="3" t="s">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>6</v>
+      </c>
+      <c r="B285" t="s">
+        <v>7</v>
+      </c>
+      <c r="C285" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D284" t="str">
+      <c r="D285" t="str">
         <f t="shared" si="2"/>
         <v>LS3_WD01:%</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
-        <v>6</v>
-      </c>
-      <c r="B285" t="s">
-        <v>7</v>
-      </c>
-      <c r="C285" s="3" t="s">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>6</v>
+      </c>
+      <c r="B286" t="s">
+        <v>7</v>
+      </c>
+      <c r="C286" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D285" t="str">
+      <c r="D286" t="str">
         <f t="shared" si="2"/>
         <v>LS3_CD02:%</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
-        <v>6</v>
-      </c>
-      <c r="B286" t="s">
-        <v>7</v>
-      </c>
-      <c r="C286" s="3" t="s">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>6</v>
+      </c>
+      <c r="B287" t="s">
+        <v>7</v>
+      </c>
+      <c r="C287" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D286" t="str">
+      <c r="D287" t="str">
         <f t="shared" si="2"/>
         <v>LS3_WD02:%</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
-        <v>6</v>
-      </c>
-      <c r="B287" t="s">
-        <v>7</v>
-      </c>
-      <c r="C287" s="3" t="s">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>6</v>
+      </c>
+      <c r="B288" t="s">
+        <v>7</v>
+      </c>
+      <c r="C288" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D287" t="str">
+      <c r="D288" t="str">
         <f t="shared" si="2"/>
         <v>LS3_CD03:%</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
-        <v>6</v>
-      </c>
-      <c r="B288" t="s">
-        <v>7</v>
-      </c>
-      <c r="C288" s="3" t="s">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>6</v>
+      </c>
+      <c r="B289" t="s">
+        <v>7</v>
+      </c>
+      <c r="C289" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D288" t="str">
+      <c r="D289" t="str">
         <f t="shared" si="2"/>
         <v>LS3_WD03:%</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
-        <v>6</v>
-      </c>
-      <c r="B289" t="s">
-        <v>7</v>
-      </c>
-      <c r="C289" s="3" t="s">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>6</v>
+      </c>
+      <c r="B290" t="s">
+        <v>7</v>
+      </c>
+      <c r="C290" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D289" t="str">
+      <c r="D290" t="str">
         <f t="shared" si="2"/>
         <v>LS3_CD04:%</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
-        <v>6</v>
-      </c>
-      <c r="B290" t="s">
-        <v>7</v>
-      </c>
-      <c r="C290" s="3" t="s">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>6</v>
+      </c>
+      <c r="B291" t="s">
+        <v>7</v>
+      </c>
+      <c r="C291" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D290" t="str">
+      <c r="D291" t="str">
         <f t="shared" si="2"/>
         <v>LS3_WD04:%</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
-        <v>6</v>
-      </c>
-      <c r="B291" t="s">
-        <v>7</v>
-      </c>
-      <c r="C291" s="3" t="s">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>6</v>
+      </c>
+      <c r="B292" t="s">
+        <v>7</v>
+      </c>
+      <c r="C292" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D291" t="str">
+      <c r="D292" t="str">
         <f t="shared" si="2"/>
         <v>LS3_CD05:%</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
-        <v>6</v>
-      </c>
-      <c r="B292" t="s">
-        <v>7</v>
-      </c>
-      <c r="C292" s="3" t="s">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>6</v>
+      </c>
+      <c r="B293" t="s">
+        <v>7</v>
+      </c>
+      <c r="C293" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D292" t="str">
+      <c r="D293" t="str">
         <f t="shared" si="2"/>
         <v>LS3_WD05:%</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
-        <v>6</v>
-      </c>
-      <c r="B293" t="s">
-        <v>7</v>
-      </c>
-      <c r="C293" s="3" t="s">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>6</v>
+      </c>
+      <c r="B294" t="s">
+        <v>7</v>
+      </c>
+      <c r="C294" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D293" t="str">
+      <c r="D294" t="str">
         <f t="shared" si="2"/>
         <v>LS3_CD06:%</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
-        <v>6</v>
-      </c>
-      <c r="B294" t="s">
-        <v>7</v>
-      </c>
-      <c r="C294" s="3" t="s">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>6</v>
+      </c>
+      <c r="B295" t="s">
+        <v>7</v>
+      </c>
+      <c r="C295" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D294" t="str">
+      <c r="D295" t="str">
         <f t="shared" si="2"/>
         <v>LS3_WD06:%</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B295" t="s">
-        <v>7</v>
-      </c>
-      <c r="C295" t="s">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>7</v>
+      </c>
+      <c r="C296" t="s">
         <v>140</v>
       </c>
-      <c r="D295" t="str">
+      <c r="D296" t="str">
         <f t="shared" si="2"/>
         <v>LS3_BTS1:%</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
-        <v>6</v>
-      </c>
-      <c r="B296" t="s">
-        <v>7</v>
-      </c>
-      <c r="C296" t="s">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>6</v>
+      </c>
+      <c r="B297" t="s">
+        <v>7</v>
+      </c>
+      <c r="C297" t="s">
         <v>137</v>
       </c>
-      <c r="D296" t="str">
+      <c r="D297" t="str">
         <f t="shared" si="2"/>
         <v>BDS_BTS:%</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A297" t="s">
-        <v>6</v>
-      </c>
-      <c r="B297" t="s">
-        <v>7</v>
-      </c>
-      <c r="C297" t="s">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>6</v>
+      </c>
+      <c r="B298" t="s">
+        <v>7</v>
+      </c>
+      <c r="C298" t="s">
         <v>138</v>
       </c>
-      <c r="D297" t="str">
+      <c r="D298" t="str">
         <f t="shared" si="2"/>
         <v>BDS_BBS:%</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
-        <v>6</v>
-      </c>
-      <c r="B298" t="s">
-        <v>7</v>
-      </c>
-      <c r="C298" t="s">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>6</v>
+      </c>
+      <c r="B299" t="s">
+        <v>7</v>
+      </c>
+      <c r="C299" t="s">
         <v>139</v>
       </c>
-      <c r="D298" t="str">
+      <c r="D299" t="str">
         <f t="shared" si="2"/>
         <v>BDS_FFS:%</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="E301" t="s">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E302" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A302" t="s">
-        <v>6</v>
-      </c>
-      <c r="B302" t="s">
-        <v>7</v>
-      </c>
-      <c r="C302" t="s">
-        <v>142</v>
-      </c>
-      <c r="D302" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>6</v>
       </c>
@@ -4909,10 +4920,10 @@
         <v>142</v>
       </c>
       <c r="D303" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>6</v>
       </c>
@@ -4923,10 +4934,10 @@
         <v>142</v>
       </c>
       <c r="D304" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>6</v>
       </c>
@@ -4937,10 +4948,10 @@
         <v>142</v>
       </c>
       <c r="D305" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>6</v>
       </c>
@@ -4951,10 +4962,10 @@
         <v>142</v>
       </c>
       <c r="D306" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>6</v>
       </c>
@@ -4965,10 +4976,10 @@
         <v>142</v>
       </c>
       <c r="D307" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>6</v>
       </c>
@@ -4979,10 +4990,10 @@
         <v>142</v>
       </c>
       <c r="D308" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>6</v>
       </c>
@@ -4993,24 +5004,24 @@
         <v>142</v>
       </c>
       <c r="D309" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>6</v>
+      </c>
+      <c r="B310" t="s">
+        <v>7</v>
+      </c>
+      <c r="C310" t="s">
+        <v>142</v>
+      </c>
+      <c r="D310" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
-        <v>6</v>
-      </c>
-      <c r="B310" t="s">
-        <v>7</v>
-      </c>
-      <c r="C310" t="s">
-        <v>15</v>
-      </c>
-      <c r="D310" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>6</v>
       </c>
@@ -5021,161 +5032,175 @@
         <v>15</v>
       </c>
       <c r="D311" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>6</v>
+      </c>
+      <c r="B312" t="s">
+        <v>7</v>
+      </c>
+      <c r="C312" t="s">
+        <v>15</v>
+      </c>
+      <c r="D312" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>6</v>
-      </c>
-      <c r="B313" t="s">
-        <v>7</v>
-      </c>
-      <c r="C313" t="s">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>6</v>
+      </c>
+      <c r="B314" t="s">
+        <v>7</v>
+      </c>
+      <c r="C314" t="s">
         <v>143</v>
       </c>
-      <c r="D313" t="str">
+      <c r="D314" t="str">
         <f t="shared" si="2"/>
         <v>FS_PTG:%</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
-        <v>6</v>
-      </c>
-      <c r="B314" t="s">
-        <v>7</v>
-      </c>
-      <c r="C314" t="s">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>6</v>
+      </c>
+      <c r="B315" t="s">
+        <v>7</v>
+      </c>
+      <c r="C315" t="s">
         <v>144</v>
       </c>
-      <c r="D314" t="str">
+      <c r="D315" t="str">
         <f t="shared" si="2"/>
         <v>FS_F1S1:%</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
-        <v>6</v>
-      </c>
-      <c r="B315" t="s">
-        <v>7</v>
-      </c>
-      <c r="C315" t="s">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>6</v>
+      </c>
+      <c r="B316" t="s">
+        <v>7</v>
+      </c>
+      <c r="C316" t="s">
         <v>145</v>
       </c>
-      <c r="D315" t="str">
+      <c r="D316" t="str">
         <f t="shared" si="2"/>
         <v>FS_PBD:%</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
-        <v>6</v>
-      </c>
-      <c r="B316" t="s">
-        <v>7</v>
-      </c>
-      <c r="C316" t="s">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>6</v>
+      </c>
+      <c r="B317" t="s">
+        <v>7</v>
+      </c>
+      <c r="C317" t="s">
         <v>146</v>
       </c>
-      <c r="D316" t="str">
+      <c r="D317" t="str">
         <f t="shared" si="2"/>
         <v>FS_F1S2:%</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
-        <v>6</v>
-      </c>
-      <c r="B317" t="s">
-        <v>7</v>
-      </c>
-      <c r="C317" t="s">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>6</v>
+      </c>
+      <c r="B318" t="s">
+        <v>7</v>
+      </c>
+      <c r="C318" t="s">
         <v>147</v>
       </c>
-      <c r="D317" t="str">
+      <c r="D318" t="str">
         <f t="shared" si="2"/>
         <v>FS_F2S1:%</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
-        <v>6</v>
-      </c>
-      <c r="B318" t="s">
-        <v>7</v>
-      </c>
-      <c r="C318" t="s">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>6</v>
+      </c>
+      <c r="B319" t="s">
+        <v>7</v>
+      </c>
+      <c r="C319" t="s">
         <v>148</v>
       </c>
-      <c r="D318" t="str">
+      <c r="D319" t="str">
         <f t="shared" si="2"/>
         <v>FS_F2S2:%</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
-        <v>6</v>
-      </c>
-      <c r="B319" t="s">
-        <v>7</v>
-      </c>
-      <c r="C319" t="s">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>6</v>
+      </c>
+      <c r="B320" t="s">
+        <v>7</v>
+      </c>
+      <c r="C320" t="s">
         <v>149</v>
       </c>
-      <c r="D319" t="str">
+      <c r="D320" t="str">
         <f t="shared" si="2"/>
         <v>FS_F3S1:%</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A320" t="s">
-        <v>6</v>
-      </c>
-      <c r="B320" t="s">
-        <v>7</v>
-      </c>
-      <c r="C320" t="s">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>6</v>
+      </c>
+      <c r="B321" t="s">
+        <v>7</v>
+      </c>
+      <c r="C321" t="s">
         <v>150</v>
       </c>
-      <c r="D320" t="str">
+      <c r="D321" t="str">
         <f t="shared" si="2"/>
         <v>FS_F3S2:%</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
-        <v>6</v>
-      </c>
-      <c r="B321" t="s">
-        <v>7</v>
-      </c>
-      <c r="C321" t="s">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>6</v>
+      </c>
+      <c r="B322" t="s">
+        <v>7</v>
+      </c>
+      <c r="C322" t="s">
         <v>151</v>
       </c>
-      <c r="D321" t="str">
+      <c r="D322" t="str">
         <f t="shared" si="2"/>
         <v>RBT_BF00:%</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A322" t="s">
-        <v>6</v>
-      </c>
-      <c r="B322" t="s">
-        <v>7</v>
-      </c>
-      <c r="C322" t="s">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>6</v>
+      </c>
+      <c r="B323" t="s">
+        <v>7</v>
+      </c>
+      <c r="C323" t="s">
         <v>152</v>
       </c>
-      <c r="D322" t="str">
+      <c r="D323" t="str">
         <f t="shared" si="2"/>
         <v>RBT_RFFS:%</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
         <v>153</v>
       </c>
     </row>
@@ -5194,7 +5219,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5206,7 +5231,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
